--- a/biology/Médecine/Albert_Reverdin/Albert_Reverdin.xlsx
+++ b/biology/Médecine/Albert_Reverdin/Albert_Reverdin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Reverdin (1881-1929), est un médecin chirurgien genevois.
 </t>
@@ -513,12 +525,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Albert Reverdin est le fils d'Auguste Reverdin et neveu de Jaques-Louis Reverdin. 
-Formation
-Il étudie auprès de César Roux à l'hôpital de Lausanne. 
-Carrière médicale
-Il sert comme médecin pour l'ambulance Vaud-Genève créée par la Croix-Rouge durant la guerre gréco-turque (1912-1913), période où il est devenu intime de la princesse Marie Bonaparte[1]. Pendant la Première Guerre mondiale, il dirige le service de chirurgie de l'hôpital militaire de Bourg-en-Bresse[2] et y côtoie Marie Long-Landry[3].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Reverdin est le fils d'Auguste Reverdin et neveu de Jaques-Louis Reverdin. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Albert_Reverdin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Reverdin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie auprès de César Roux à l'hôpital de Lausanne. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Albert_Reverdin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Reverdin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il sert comme médecin pour l'ambulance Vaud-Genève créée par la Croix-Rouge durant la guerre gréco-turque (1912-1913), période où il est devenu intime de la princesse Marie Bonaparte. Pendant la Première Guerre mondiale, il dirige le service de chirurgie de l'hôpital militaire de Bourg-en-Bresse et y côtoie Marie Long-Landry.
 </t>
         </is>
       </c>
